--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf22-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf22-Fgfrl1.xlsx
@@ -543,10 +543,10 @@
         <v>0.444339</v>
       </c>
       <c r="I2">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J2">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.704056</v>
+        <v>1.193633666666667</v>
       </c>
       <c r="N2">
-        <v>2.112168</v>
+        <v>3.580901</v>
       </c>
       <c r="O2">
-        <v>0.06182348620901491</v>
+        <v>0.0852504197348203</v>
       </c>
       <c r="P2">
-        <v>0.0618234862090149</v>
+        <v>0.08525041973482028</v>
       </c>
       <c r="Q2">
-        <v>0.104279846328</v>
+        <v>0.176792663271</v>
       </c>
       <c r="R2">
-        <v>0.9385186169520001</v>
+        <v>1.591133969439</v>
       </c>
       <c r="S2">
-        <v>0.04839804656935727</v>
+        <v>0.03212708851429543</v>
       </c>
       <c r="T2">
-        <v>0.04839804656935726</v>
+        <v>0.03212708851429542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.444339</v>
       </c>
       <c r="I3">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J3">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>25.93955</v>
       </c>
       <c r="O3">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064692</v>
       </c>
       <c r="P3">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064691</v>
       </c>
       <c r="Q3">
         <v>1.28066152305</v>
@@ -635,10 +635,10 @@
         <v>11.52595370745</v>
       </c>
       <c r="S3">
-        <v>0.5943767488609671</v>
+        <v>0.2327241716179788</v>
       </c>
       <c r="T3">
-        <v>0.5943767488609671</v>
+        <v>0.2327241716179788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.444339</v>
       </c>
       <c r="I4">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J4">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.618446666666667</v>
+        <v>4.028899666666667</v>
       </c>
       <c r="N4">
-        <v>4.85534</v>
+        <v>12.086699</v>
       </c>
       <c r="O4">
-        <v>0.1421165577407093</v>
+        <v>0.2877477380576656</v>
       </c>
       <c r="P4">
-        <v>0.1421165577407092</v>
+        <v>0.2877477380576655</v>
       </c>
       <c r="Q4">
-        <v>0.23971299114</v>
+        <v>0.596732416329</v>
       </c>
       <c r="R4">
-        <v>2.15741692026</v>
+        <v>5.370591746961</v>
       </c>
       <c r="S4">
-        <v>0.1112548677141511</v>
+        <v>0.1084393141889837</v>
       </c>
       <c r="T4">
-        <v>0.1112548677141511</v>
+        <v>0.1084393141889837</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>0.444339</v>
       </c>
       <c r="I5">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="J5">
-        <v>0.7828424040296197</v>
+        <v>0.3768554877997065</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4191446666666667</v>
+        <v>0.132449</v>
       </c>
       <c r="N5">
-        <v>1.257434</v>
+        <v>0.397347</v>
       </c>
       <c r="O5">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044888</v>
       </c>
       <c r="P5">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044887</v>
       </c>
       <c r="Q5">
-        <v>0.06208077401400001</v>
+        <v>0.019617418737</v>
       </c>
       <c r="R5">
-        <v>0.5587269661260001</v>
+        <v>0.176556768633</v>
       </c>
       <c r="S5">
-        <v>0.02881274088514417</v>
+        <v>0.003564913478448509</v>
       </c>
       <c r="T5">
-        <v>0.02881274088514417</v>
+        <v>0.003564913478448509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.041086</v>
+        <v>0.2449103333333333</v>
       </c>
       <c r="H6">
-        <v>0.123258</v>
+        <v>0.734731</v>
       </c>
       <c r="I6">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="J6">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.704056</v>
+        <v>1.193633666666667</v>
       </c>
       <c r="N6">
-        <v>2.112168</v>
+        <v>3.580901</v>
       </c>
       <c r="O6">
-        <v>0.06182348620901491</v>
+        <v>0.0852504197348203</v>
       </c>
       <c r="P6">
-        <v>0.0618234862090149</v>
+        <v>0.08525041973482028</v>
       </c>
       <c r="Q6">
-        <v>0.028926844816</v>
+        <v>0.2923332191812222</v>
       </c>
       <c r="R6">
-        <v>0.260341603344</v>
+        <v>2.630998972631</v>
       </c>
       <c r="S6">
-        <v>0.01342543963965764</v>
+        <v>0.05312333122052487</v>
       </c>
       <c r="T6">
-        <v>0.01342543963965764</v>
+        <v>0.05312333122052485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.041086</v>
+        <v>0.2449103333333333</v>
       </c>
       <c r="H7">
-        <v>0.123258</v>
+        <v>0.734731</v>
       </c>
       <c r="I7">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="J7">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>25.93955</v>
       </c>
       <c r="O7">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064692</v>
       </c>
       <c r="P7">
-        <v>0.759254667097055</v>
+        <v>0.6175422122064691</v>
       </c>
       <c r="Q7">
-        <v>0.3552507837666666</v>
+        <v>2.117621279005556</v>
       </c>
       <c r="R7">
-        <v>3.1972570539</v>
+        <v>19.05859151105</v>
       </c>
       <c r="S7">
-        <v>0.1648779182360879</v>
+        <v>0.3848180405884903</v>
       </c>
       <c r="T7">
-        <v>0.1648779182360879</v>
+        <v>0.3848180405884903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.041086</v>
+        <v>0.2449103333333333</v>
       </c>
       <c r="H8">
-        <v>0.123258</v>
+        <v>0.734731</v>
       </c>
       <c r="I8">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="J8">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.618446666666667</v>
+        <v>4.028899666666667</v>
       </c>
       <c r="N8">
-        <v>4.85534</v>
+        <v>12.086699</v>
       </c>
       <c r="O8">
-        <v>0.1421165577407093</v>
+        <v>0.2877477380576656</v>
       </c>
       <c r="P8">
-        <v>0.1421165577407092</v>
+        <v>0.2877477380576655</v>
       </c>
       <c r="Q8">
-        <v>0.06649549974666666</v>
+        <v>0.9867191603298889</v>
       </c>
       <c r="R8">
-        <v>0.59845949772</v>
+        <v>8.880472442968999</v>
       </c>
       <c r="S8">
-        <v>0.03086169002655818</v>
+        <v>0.1793084238686818</v>
       </c>
       <c r="T8">
-        <v>0.03086169002655817</v>
+        <v>0.1793084238686818</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.041086</v>
+        <v>0.2449103333333333</v>
       </c>
       <c r="H9">
-        <v>0.123258</v>
+        <v>0.734731</v>
       </c>
       <c r="I9">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="J9">
-        <v>0.2171575959703804</v>
+        <v>0.6231445122002934</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.4191446666666667</v>
+        <v>0.132449</v>
       </c>
       <c r="N9">
-        <v>1.257434</v>
+        <v>0.397347</v>
       </c>
       <c r="O9">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044888</v>
       </c>
       <c r="P9">
-        <v>0.03680528895322079</v>
+        <v>0.009459630001044887</v>
       </c>
       <c r="Q9">
-        <v>0.01722097777466667</v>
+        <v>0.03243812873966667</v>
       </c>
       <c r="R9">
-        <v>0.154988799972</v>
+        <v>0.291943158657</v>
       </c>
       <c r="S9">
-        <v>0.007992548068076625</v>
+        <v>0.005894716522596378</v>
       </c>
       <c r="T9">
-        <v>0.007992548068076625</v>
+        <v>0.005894716522596377</v>
       </c>
     </row>
   </sheetData>
